--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H2">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I2">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J2">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>80.8854473892881</v>
+        <v>81.979392</v>
       </c>
       <c r="N2">
-        <v>80.8854473892881</v>
+        <v>245.938176</v>
       </c>
       <c r="O2">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="P2">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="Q2">
-        <v>1009.699933199394</v>
+        <v>548.141049499648</v>
       </c>
       <c r="R2">
-        <v>1009.699933199394</v>
+        <v>4933.269445496832</v>
       </c>
       <c r="S2">
-        <v>0.2369752301298581</v>
+        <v>0.09243351371192245</v>
       </c>
       <c r="T2">
-        <v>0.2369752301298581</v>
+        <v>0.09243351371192243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H3">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I3">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J3">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.1139377648293</v>
+        <v>22.17197066666667</v>
       </c>
       <c r="N3">
-        <v>22.1139377648293</v>
+        <v>66.515912</v>
       </c>
       <c r="O3">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="P3">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="Q3">
-        <v>276.050169772328</v>
+        <v>148.2490535023982</v>
       </c>
       <c r="R3">
-        <v>276.050169772328</v>
+        <v>1334.241481521584</v>
       </c>
       <c r="S3">
-        <v>0.06478860734584739</v>
+        <v>0.02499937002018355</v>
       </c>
       <c r="T3">
-        <v>0.06478860734584739</v>
+        <v>0.02499937002018355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H4">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I4">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J4">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.9314427611288</v>
+        <v>29.98794266666667</v>
       </c>
       <c r="N4">
-        <v>25.9314427611288</v>
+        <v>89.96382800000001</v>
       </c>
       <c r="O4">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="P4">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="Q4">
-        <v>323.7044099868963</v>
+        <v>200.5092007225662</v>
       </c>
       <c r="R4">
-        <v>323.7044099868963</v>
+        <v>1804.582806503096</v>
       </c>
       <c r="S4">
-        <v>0.07597299408313042</v>
+        <v>0.0338120452231663</v>
       </c>
       <c r="T4">
-        <v>0.07597299408313042</v>
+        <v>0.0338120452231663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H5">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I5">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J5">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8083131707729</v>
+        <v>22.35431</v>
       </c>
       <c r="N5">
-        <v>20.8083131707729</v>
+        <v>67.06293000000001</v>
       </c>
       <c r="O5">
-        <v>0.1389637540315485</v>
+        <v>0.142844869117408</v>
       </c>
       <c r="P5">
-        <v>0.1389637540315485</v>
+        <v>0.1428448691174081</v>
       </c>
       <c r="Q5">
-        <v>259.7519466932429</v>
+        <v>149.4682339708067</v>
       </c>
       <c r="R5">
-        <v>259.7519466932429</v>
+        <v>1345.21410573726</v>
       </c>
       <c r="S5">
-        <v>0.06096343608666372</v>
+        <v>0.02520496150917495</v>
       </c>
       <c r="T5">
-        <v>0.06096343608666372</v>
+        <v>0.02520496150917495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H6">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I6">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J6">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.8854473892881</v>
+        <v>81.979392</v>
       </c>
       <c r="N6">
-        <v>80.8854473892881</v>
+        <v>245.938176</v>
       </c>
       <c r="O6">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="P6">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="Q6">
-        <v>1004.248720605922</v>
+        <v>1096.776571365376</v>
       </c>
       <c r="R6">
-        <v>1004.248720605922</v>
+        <v>9870.989142288385</v>
       </c>
       <c r="S6">
-        <v>0.2356958377912537</v>
+        <v>0.1849504107396391</v>
       </c>
       <c r="T6">
-        <v>0.2356958377912537</v>
+        <v>0.1849504107396391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H7">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I7">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J7">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.1139377648293</v>
+        <v>22.17197066666667</v>
       </c>
       <c r="N7">
-        <v>22.1139377648293</v>
+        <v>66.515912</v>
       </c>
       <c r="O7">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="P7">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="Q7">
-        <v>274.5598179238094</v>
+        <v>296.6318409412009</v>
       </c>
       <c r="R7">
-        <v>274.5598179238094</v>
+        <v>2669.686568470808</v>
       </c>
       <c r="S7">
-        <v>0.06443882375107375</v>
+        <v>0.05002129171325435</v>
       </c>
       <c r="T7">
-        <v>0.06443882375107375</v>
+        <v>0.05002129171325436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H8">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I8">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J8">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.9314427611288</v>
+        <v>29.98794266666667</v>
       </c>
       <c r="N8">
-        <v>25.9314427611288</v>
+        <v>89.96382800000001</v>
       </c>
       <c r="O8">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="P8">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="Q8">
-        <v>321.9567803216238</v>
+        <v>401.199278719317</v>
       </c>
       <c r="R8">
-        <v>321.9567803216238</v>
+        <v>3610.793508473852</v>
       </c>
       <c r="S8">
-        <v>0.07556282772727314</v>
+        <v>0.06765459194228654</v>
       </c>
       <c r="T8">
-        <v>0.07556282772727314</v>
+        <v>0.06765459194228654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H9">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I9">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J9">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.8083131707729</v>
+        <v>22.35431</v>
       </c>
       <c r="N9">
-        <v>20.8083131707729</v>
+        <v>67.06293000000001</v>
       </c>
       <c r="O9">
-        <v>0.1389637540315485</v>
+        <v>0.142844869117408</v>
       </c>
       <c r="P9">
-        <v>0.1389637540315485</v>
+        <v>0.1428448691174081</v>
       </c>
       <c r="Q9">
-        <v>258.3495864113061</v>
+        <v>299.0713016880967</v>
       </c>
       <c r="R9">
-        <v>258.3495864113061</v>
+        <v>2691.64171519287</v>
       </c>
       <c r="S9">
-        <v>0.06063430399542557</v>
+        <v>0.05043266015319097</v>
       </c>
       <c r="T9">
-        <v>0.06063430399542557</v>
+        <v>0.05043266015319098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.55592542120587</v>
+        <v>13.62475033333333</v>
       </c>
       <c r="H10">
-        <v>3.55592542120587</v>
+        <v>40.874251</v>
       </c>
       <c r="I10">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="J10">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.8854473892881</v>
+        <v>81.979392</v>
       </c>
       <c r="N10">
-        <v>80.8854473892881</v>
+        <v>245.938176</v>
       </c>
       <c r="O10">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="P10">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="Q10">
-        <v>287.6226185771795</v>
+        <v>1116.948748478464</v>
       </c>
       <c r="R10">
-        <v>287.6226185771795</v>
+        <v>10052.53873630618</v>
       </c>
       <c r="S10">
-        <v>0.06750464567419114</v>
+        <v>0.1883520629448224</v>
       </c>
       <c r="T10">
-        <v>0.06750464567419114</v>
+        <v>0.1883520629448224</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.55592542120587</v>
+        <v>13.62475033333333</v>
       </c>
       <c r="H11">
-        <v>3.55592542120587</v>
+        <v>40.874251</v>
       </c>
       <c r="I11">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="J11">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.1139377648293</v>
+        <v>22.17197066666667</v>
       </c>
       <c r="N11">
-        <v>22.1139377648293</v>
+        <v>66.515912</v>
       </c>
       <c r="O11">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="P11">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="Q11">
-        <v>78.63551346092102</v>
+        <v>302.0875647313235</v>
       </c>
       <c r="R11">
-        <v>78.63551346092102</v>
+        <v>2718.788082581912</v>
       </c>
       <c r="S11">
-        <v>0.01845565032349208</v>
+        <v>0.05094129527843724</v>
       </c>
       <c r="T11">
-        <v>0.01845565032349208</v>
+        <v>0.05094129527843724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.55592542120587</v>
+        <v>13.62475033333333</v>
       </c>
       <c r="H12">
-        <v>3.55592542120587</v>
+        <v>40.874251</v>
       </c>
       <c r="I12">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="J12">
-        <v>0.1249679390894743</v>
+        <v>0.3595524993125934</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9314427611288</v>
+        <v>29.98794266666667</v>
       </c>
       <c r="N12">
-        <v>25.9314427611288</v>
+        <v>89.96382800000001</v>
       </c>
       <c r="O12">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="P12">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="Q12">
-        <v>92.21027652284283</v>
+        <v>408.5782318436476</v>
       </c>
       <c r="R12">
-        <v>92.21027652284283</v>
+        <v>3677.204086592828</v>
       </c>
       <c r="S12">
-        <v>0.02164162914233187</v>
+        <v>0.0688989113841894</v>
       </c>
       <c r="T12">
-        <v>0.02164162914233187</v>
+        <v>0.06889891138418941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.62475033333333</v>
+      </c>
+      <c r="H13">
+        <v>40.874251</v>
+      </c>
+      <c r="I13">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="J13">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.35431</v>
+      </c>
+      <c r="N13">
+        <v>67.06293000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.142844869117408</v>
+      </c>
+      <c r="P13">
+        <v>0.1428448691174081</v>
+      </c>
+      <c r="Q13">
+        <v>304.5718926239367</v>
+      </c>
+      <c r="R13">
+        <v>2741.14703361543</v>
+      </c>
+      <c r="S13">
+        <v>0.05136022970514435</v>
+      </c>
+      <c r="T13">
+        <v>0.05136022970514435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H14">
+        <v>12.611606</v>
+      </c>
+      <c r="I14">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J14">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>81.979392</v>
+      </c>
+      <c r="N14">
+        <v>245.938176</v>
+      </c>
+      <c r="O14">
+        <v>0.523851352180617</v>
+      </c>
+      <c r="P14">
+        <v>0.523851352180617</v>
+      </c>
+      <c r="Q14">
+        <v>344.6305973411841</v>
+      </c>
+      <c r="R14">
+        <v>3101.675376070657</v>
+      </c>
+      <c r="S14">
+        <v>0.05811536478423299</v>
+      </c>
+      <c r="T14">
+        <v>0.05811536478423299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H15">
+        <v>12.611606</v>
+      </c>
+      <c r="I15">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J15">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.17197066666667</v>
+      </c>
+      <c r="N15">
+        <v>66.515912</v>
+      </c>
+      <c r="O15">
+        <v>0.1416797140218155</v>
+      </c>
+      <c r="P15">
+        <v>0.1416797140218155</v>
+      </c>
+      <c r="Q15">
+        <v>93.20805276385246</v>
+      </c>
+      <c r="R15">
+        <v>838.8724748746721</v>
+      </c>
+      <c r="S15">
+        <v>0.01571775700994034</v>
+      </c>
+      <c r="T15">
+        <v>0.01571775700994034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.55592542120587</v>
-      </c>
-      <c r="H13">
-        <v>3.55592542120587</v>
-      </c>
-      <c r="I13">
-        <v>0.1249679390894743</v>
-      </c>
-      <c r="J13">
-        <v>0.1249679390894743</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>20.8083131707729</v>
-      </c>
-      <c r="N13">
-        <v>20.8083131707729</v>
-      </c>
-      <c r="O13">
-        <v>0.1389637540315485</v>
-      </c>
-      <c r="P13">
-        <v>0.1389637540315485</v>
-      </c>
-      <c r="Q13">
-        <v>73.99280977636428</v>
-      </c>
-      <c r="R13">
-        <v>73.99280977636428</v>
-      </c>
-      <c r="S13">
-        <v>0.01736601394945925</v>
-      </c>
-      <c r="T13">
-        <v>0.01736601394945925</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H16">
+        <v>12.611606</v>
+      </c>
+      <c r="I16">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J16">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>29.98794266666667</v>
+      </c>
+      <c r="N16">
+        <v>89.96382800000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1916240646801595</v>
+      </c>
+      <c r="P16">
+        <v>0.1916240646801595</v>
+      </c>
+      <c r="Q16">
+        <v>126.0653725541965</v>
+      </c>
+      <c r="R16">
+        <v>1134.588352987768</v>
+      </c>
+      <c r="S16">
+        <v>0.02125851613051727</v>
+      </c>
+      <c r="T16">
+        <v>0.02125851613051727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H17">
+        <v>12.611606</v>
+      </c>
+      <c r="I17">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J17">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.35431</v>
+      </c>
+      <c r="N17">
+        <v>67.06293000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.142844869117408</v>
+      </c>
+      <c r="P17">
+        <v>0.1428448691174081</v>
+      </c>
+      <c r="Q17">
+        <v>93.97458337395337</v>
+      </c>
+      <c r="R17">
+        <v>845.7712503655803</v>
+      </c>
+      <c r="S17">
+        <v>0.01584701774989777</v>
+      </c>
+      <c r="T17">
+        <v>0.01584701774989777</v>
       </c>
     </row>
   </sheetData>
